--- a/biology/Médecine/Transmission_du_savoir_médical_arabe_en_Occident_latin_au_Moyen_Âge/Transmission_du_savoir_médical_arabe_en_Occident_latin_au_Moyen_Âge.xlsx
+++ b/biology/Médecine/Transmission_du_savoir_médical_arabe_en_Occident_latin_au_Moyen_Âge/Transmission_du_savoir_médical_arabe_en_Occident_latin_au_Moyen_Âge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transmission_du_savoir_m%C3%A9dical_arabe_en_Occident_latin_au_Moyen_%C3%82ge</t>
+          <t>Transmission_du_savoir_médical_arabe_en_Occident_latin_au_Moyen_Âge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission du savoir médical du monde musulman au monde latin intervient à une époque où la médecine médiévale européenne s'appuie principalement sur des textes latins de tableaux cliniques, de règles de diagnostics et de traitement, tandis que, dans le même temps, s'est développé, dans l’Orient musulman, un savoir théorique hérité du monde hellénistique et enrichi par la pensée de médecins d'un vaste territoire allant de l'Espagne et l'Afrique du nord, jusqu'en Inde. La médecine y atteint alors un important niveau théorique comme pratique : les maisons de la sagesse  illustrent cet essor.  À partir du XIe siècle, l'occident médiéval reçoit grâce aux traductions latines d'auteurs arabes la transmission de sources grecques ainsi que l'apport d'un savoir original. 
 Des traductions de l’arabe au latin transmettent ce savoir à l’Occident en deux étapes :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transmission_du_savoir_m%C3%A9dical_arabe_en_Occident_latin_au_Moyen_%C3%82ge</t>
+          <t>Transmission_du_savoir_médical_arabe_en_Occident_latin_au_Moyen_Âge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
